--- a/22/After_Soc_EEH2.xlsx
+++ b/22/After_Soc_EEH2.xlsx
@@ -17,48 +17,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+  <si>
+    <t>ГО</t>
+  </si>
   <si>
     <t>ГЗ</t>
   </si>
   <si>
-    <t>ГЗ_end</t>
+    <t>1</t>
   </si>
   <si>
-    <t>Extract per1 SetValue_Start</t>
+    <t>2</t>
   </si>
   <si>
-    <t>Extract per5 SetValue_Start</t>
+    <t>3</t>
   </si>
   <si>
-    <t>Extract per5 ShowRes_Start</t>
+    <t>4</t>
   </si>
   <si>
-    <t>Extract end</t>
-  </si>
-  <si>
-    <t>Show res of Extract</t>
-  </si>
-  <si>
-    <t>Contrib per1 SetValue_Start</t>
-  </si>
-  <si>
-    <t>Contrib per3 SetValue_Start</t>
-  </si>
-  <si>
-    <t>Contrib per5 SetValue_Start</t>
-  </si>
-  <si>
-    <t>Contrib per5 ShowRes_Start</t>
-  </si>
-  <si>
-    <t>Contrib end</t>
-  </si>
-  <si>
-    <t>Extract per3 SetValue_Start</t>
-  </si>
-  <si>
-    <t>ГО</t>
+    <t>5</t>
   </si>
   <si>
     <t>Кузнецов Никита</t>
@@ -464,14 +443,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:44">
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -480,66 +462,120 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="P1" t="s">
         <v>2</v>
       </c>
       <c r="Q1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
         <v>5</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" t="s">
         <v>6</v>
       </c>
-      <c r="T1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W1" t="s">
-        <v>11</v>
-      </c>
       <c r="X1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Y1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AR1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:44">
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>0.1379058048473757</v>
@@ -670,7 +706,7 @@
     </row>
     <row r="3" spans="1:44">
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>0.07718135954443915</v>
@@ -801,7 +837,7 @@
     </row>
     <row r="4" spans="1:44">
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>0.1863005678247999</v>
@@ -932,7 +968,7 @@
     </row>
     <row r="5" spans="1:44">
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
         <v>0.6066663357735653</v>
@@ -1063,7 +1099,7 @@
     </row>
     <row r="6" spans="1:44">
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>0.1202261912918104</v>
@@ -1194,7 +1230,7 @@
     </row>
     <row r="7" spans="1:44">
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
         <v>0.1550037630292271</v>
@@ -1325,7 +1361,7 @@
     </row>
     <row r="8" spans="1:44">
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
         <v>0.08546661853199125</v>
@@ -1456,7 +1492,7 @@
     </row>
     <row r="9" spans="1:44">
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
         <v>0.09468933501343255</v>
@@ -1587,7 +1623,7 @@
     </row>
     <row r="10" spans="1:44">
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
         <v>0.0616720494014066</v>
@@ -1718,7 +1754,7 @@
     </row>
     <row r="11" spans="1:44">
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
         <v>0.08016925598008742</v>
@@ -1867,14 +1903,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:44">
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1883,66 +1922,120 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="P1" t="s">
         <v>2</v>
       </c>
       <c r="Q1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
         <v>5</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" t="s">
         <v>6</v>
       </c>
-      <c r="T1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W1" t="s">
-        <v>11</v>
-      </c>
       <c r="X1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Y1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AR1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:44">
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>9.316076489866749</v>
@@ -2073,7 +2166,7 @@
     </row>
     <row r="3" spans="1:44">
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>10.16732465605573</v>
@@ -2204,7 +2297,7 @@
     </row>
     <row r="4" spans="1:44">
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>9.541061484533698</v>
@@ -2335,7 +2428,7 @@
     </row>
     <row r="5" spans="1:44">
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
         <v>6.515816217891642</v>
@@ -2466,7 +2559,7 @@
     </row>
     <row r="6" spans="1:44">
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>9.554299027258127</v>
@@ -2597,7 +2690,7 @@
     </row>
     <row r="7" spans="1:44">
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
         <v>9.956069948388118</v>
@@ -2728,7 +2821,7 @@
     </row>
     <row r="8" spans="1:44">
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
         <v>9.980606854564906</v>
@@ -2859,7 +2952,7 @@
     </row>
     <row r="9" spans="1:44">
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
         <v>9.981572343199442</v>
@@ -2990,7 +3083,7 @@
     </row>
     <row r="10" spans="1:44">
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
         <v>10.29336847484401</v>
@@ -3121,7 +3214,7 @@
     </row>
     <row r="11" spans="1:44">
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
         <v>10.2282923933362</v>
@@ -3270,14 +3363,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:44">
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -3286,66 +3382,120 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="P1" t="s">
         <v>2</v>
       </c>
       <c r="Q1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
         <v>5</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" t="s">
         <v>6</v>
       </c>
-      <c r="T1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W1" t="s">
-        <v>11</v>
-      </c>
       <c r="X1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Y1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AR1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:44">
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>0.7796806854529851</v>
@@ -3476,7 +3626,7 @@
     </row>
     <row r="3" spans="1:44">
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>0.6910815268459796</v>
@@ -3607,7 +3757,7 @@
     </row>
     <row r="4" spans="1:44">
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>0.7224455657786095</v>
@@ -3738,7 +3888,7 @@
     </row>
     <row r="5" spans="1:44">
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
         <v>0.6823598815022999</v>
@@ -3869,7 +4019,7 @@
     </row>
     <row r="6" spans="1:44">
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>0.7499257019099576</v>
@@ -4000,7 +4150,7 @@
     </row>
     <row r="7" spans="1:44">
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
         <v>0.7229330297474408</v>
@@ -4131,7 +4281,7 @@
     </row>
     <row r="8" spans="1:44">
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
         <v>0.6873753961059166</v>
@@ -4262,7 +4412,7 @@
     </row>
     <row r="9" spans="1:44">
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
         <v>0.7227008586185332</v>
@@ -4393,7 +4543,7 @@
     </row>
     <row r="10" spans="1:44">
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
         <v>0.6469810674477581</v>
@@ -4524,7 +4674,7 @@
     </row>
     <row r="11" spans="1:44">
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
         <v>0.6785036579688971</v>

--- a/22/After_Soc_EEH2.xlsx
+++ b/22/After_Soc_EEH2.xlsx
@@ -578,130 +578,130 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1379058048473757</v>
+        <v>0.1379058048474331</v>
       </c>
       <c r="D2" t="n">
-        <v>3.387891953974809</v>
+        <v>3.387891953974808</v>
       </c>
       <c r="E2" t="n">
-        <v>8.588406155526183</v>
+        <v>8.588406155526108</v>
       </c>
       <c r="F2" t="n">
-        <v>1.628731737367917</v>
+        <v>1.62873173736793</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7578324464513444</v>
+        <v>0.7578324464518194</v>
       </c>
       <c r="H2" t="n">
-        <v>1.011022879856117</v>
+        <v>1.011022879856052</v>
       </c>
       <c r="I2" t="n">
-        <v>2.453639902248552</v>
+        <v>2.453639902248685</v>
       </c>
       <c r="J2" t="n">
-        <v>3.128858001956739</v>
+        <v>3.128858001956671</v>
       </c>
       <c r="K2" t="n">
-        <v>2.198057003481243</v>
+        <v>2.198057003481107</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7985400088277907</v>
+        <v>0.7985400088278759</v>
       </c>
       <c r="M2" t="n">
-        <v>1.323456312126397</v>
+        <v>1.323456312126879</v>
       </c>
       <c r="N2" t="n">
-        <v>2.32898337799788</v>
+        <v>2.328983377998393</v>
       </c>
       <c r="O2" t="n">
-        <v>3.325516602480676</v>
+        <v>3.325516602480208</v>
       </c>
       <c r="P2" t="n">
-        <v>2.297227614262404</v>
+        <v>2.297227614262061</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.515420877654478</v>
+        <v>2.51542087765352</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9175278601741432</v>
+        <v>0.9175278601742425</v>
       </c>
       <c r="S2" t="n">
-        <v>2.218105402943499</v>
+        <v>2.218105402943447</v>
       </c>
       <c r="T2" t="n">
-        <v>3.119987801695294</v>
+        <v>3.119987801695601</v>
       </c>
       <c r="U2" t="n">
-        <v>6.295504478469867</v>
+        <v>6.295504478470092</v>
       </c>
       <c r="V2" t="n">
-        <v>5.257284227794106</v>
+        <v>5.257284227794317</v>
       </c>
       <c r="W2" t="n">
-        <v>4.911088404669513</v>
+        <v>4.911088404668708</v>
       </c>
       <c r="X2" t="n">
-        <v>5.74194278064171</v>
+        <v>5.741942780641771</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.820339070278735</v>
+        <v>1.820339070278267</v>
       </c>
       <c r="Z2" t="n">
-        <v>6.098271156311561</v>
+        <v>6.098271156311846</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.743608425520159</v>
+        <v>0.7436084255203477</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.286604728397188</v>
+        <v>1.286604728397425</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.4319060274587313</v>
+        <v>0.4319060274590372</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.010116997495718</v>
+        <v>2.010116997495034</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.033432330421289</v>
+        <v>1.033432330421355</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.014180479442104</v>
+        <v>1.014180479442132</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.6448679683345161</v>
+        <v>0.6448679683344506</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.8992395609805145</v>
+        <v>0.8992395609805449</v>
       </c>
       <c r="AI2" t="n">
-        <v>2.202446706558283</v>
+        <v>2.202446706557988</v>
       </c>
       <c r="AJ2" t="n">
-        <v>3.657077703411296</v>
+        <v>3.657077703411389</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.0570533121315</v>
+        <v>1.057053312131445</v>
       </c>
       <c r="AL2" t="n">
-        <v>4.350237987154557</v>
+        <v>4.350237987153249</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.6552954335892904</v>
+        <v>0.6552954335893442</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.6844297346300315</v>
+        <v>0.6844297346304176</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.3290053732573268</v>
+        <v>0.3290053732569732</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.335777816977704</v>
+        <v>1.335777816977548</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7.239446611834104</v>
+        <v>7.239446611833776</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.454318252842623</v>
+        <v>1.454318252842575</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -709,130 +709,130 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07718135954443915</v>
+        <v>0.07718135954447489</v>
       </c>
       <c r="D3" t="n">
-        <v>1.750144684907002</v>
+        <v>1.750144684906939</v>
       </c>
       <c r="E3" t="n">
-        <v>3.934833554378391</v>
+        <v>3.934833554378347</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4783991915194859</v>
+        <v>0.4783991915193748</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7174748530850358</v>
+        <v>0.7174748530852507</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7624063173528133</v>
+        <v>0.7624063173528378</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3394382640431045</v>
+        <v>0.3394382640433292</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1780293086602553</v>
+        <v>0.1780293086601294</v>
       </c>
       <c r="K3" t="n">
-        <v>1.165356275089091</v>
+        <v>1.165356275089239</v>
       </c>
       <c r="L3" t="n">
-        <v>1.930609832653336</v>
+        <v>1.930609832653277</v>
       </c>
       <c r="M3" t="n">
-        <v>2.433342488450759</v>
+        <v>2.433342488450331</v>
       </c>
       <c r="N3" t="n">
-        <v>4.555388551954527</v>
+        <v>4.555388551954747</v>
       </c>
       <c r="O3" t="n">
-        <v>4.056057396813612</v>
+        <v>4.056057396813458</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2870933426617902</v>
+        <v>0.2870933426617279</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4308738454891561</v>
+        <v>0.4308738454891484</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9727484314146436</v>
+        <v>0.9727484314140379</v>
       </c>
       <c r="S3" t="n">
-        <v>1.576006353066799</v>
+        <v>1.576006353066566</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3851614194622892</v>
+        <v>0.3851614194621129</v>
       </c>
       <c r="U3" t="n">
-        <v>0.6083135760858928</v>
+        <v>0.608313576086238</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3100394666783888</v>
+        <v>0.3100394666784792</v>
       </c>
       <c r="W3" t="n">
-        <v>1.343254659477638</v>
+        <v>1.343254659477668</v>
       </c>
       <c r="X3" t="n">
-        <v>1.569511759419066</v>
+        <v>1.569511759419061</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.315033591711555</v>
+        <v>2.315033591711467</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.421225616240769</v>
+        <v>2.421225616241057</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.772700016903139</v>
+        <v>1.772700016903265</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.8938501943205142</v>
+        <v>0.8938501943204237</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.284882971399977</v>
+        <v>0.2848829713998897</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.7389402789475014</v>
+        <v>0.738940278947512</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.571654000281439</v>
+        <v>1.571654000281431</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.6150672396318655</v>
+        <v>0.6150672396322255</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.6284861334736832</v>
+        <v>0.6284861334738573</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.8243255400686611</v>
+        <v>0.8243255400686206</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.5576556348384794</v>
+        <v>0.5576556348383187</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.8531182436877227</v>
+        <v>0.8531182436877538</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.540524991084185</v>
+        <v>1.540524991084316</v>
       </c>
       <c r="AL3" t="n">
-        <v>18.77592477941459</v>
+        <v>18.77592477941414</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.1370514048392584</v>
+        <v>0.1370514048394185</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.1101557430788202</v>
+        <v>0.1101557430786569</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.3024861507106321</v>
+        <v>0.3024861507106709</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.194344534843466</v>
+        <v>1.19434453484352</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.4923951450519016</v>
+        <v>0.4923951450515651</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.0993436340898976</v>
+        <v>0.09934363408990159</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -840,130 +840,130 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1863005678247999</v>
+        <v>0.1863005678246938</v>
       </c>
       <c r="D4" t="n">
-        <v>3.536315797418336</v>
+        <v>3.536315797418368</v>
       </c>
       <c r="E4" t="n">
-        <v>7.098326326490166</v>
+        <v>7.098326326489815</v>
       </c>
       <c r="F4" t="n">
-        <v>1.134069347630127</v>
+        <v>1.134069347630659</v>
       </c>
       <c r="G4" t="n">
-        <v>1.055424395765195</v>
+        <v>1.055424395765049</v>
       </c>
       <c r="H4" t="n">
-        <v>4.691871558157037</v>
+        <v>4.691871558157299</v>
       </c>
       <c r="I4" t="n">
-        <v>6.650938046510398</v>
+        <v>6.650938046510303</v>
       </c>
       <c r="J4" t="n">
-        <v>1.25502038702809</v>
+        <v>1.255020387028147</v>
       </c>
       <c r="K4" t="n">
-        <v>3.272631781498645</v>
+        <v>3.272631781498804</v>
       </c>
       <c r="L4" t="n">
-        <v>1.378524945707893</v>
+        <v>1.378524945708141</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9551329239773152</v>
+        <v>0.9551329239769077</v>
       </c>
       <c r="N4" t="n">
-        <v>0.832616465729219</v>
+        <v>0.8326164657290047</v>
       </c>
       <c r="O4" t="n">
-        <v>2.604359412829828</v>
+        <v>2.60435941282977</v>
       </c>
       <c r="P4" t="n">
-        <v>2.474189251090596</v>
+        <v>2.474189251090697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8916194037285076</v>
+        <v>0.8916194037285166</v>
       </c>
       <c r="R4" t="n">
-        <v>5.544772779794529</v>
+        <v>5.544772779795002</v>
       </c>
       <c r="S4" t="n">
-        <v>8.346613925478399</v>
+        <v>8.346613925478222</v>
       </c>
       <c r="T4" t="n">
-        <v>4.052583497400518</v>
+        <v>4.052583497400591</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9335210713051517</v>
+        <v>0.9335210713054604</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9394419429859397</v>
+        <v>0.9394419429860394</v>
       </c>
       <c r="W4" t="n">
         <v>1.993303801602498</v>
       </c>
       <c r="X4" t="n">
-        <v>1.677399479966746</v>
+        <v>1.677399479966569</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.8178238614965678</v>
+        <v>0.8178238614965346</v>
       </c>
       <c r="Z4" t="n">
-        <v>38.06952594125996</v>
+        <v>38.06952594125999</v>
       </c>
       <c r="AA4" t="n">
-        <v>4.911956220528379</v>
+        <v>4.911956220528197</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.744799091403941</v>
+        <v>3.744799091403932</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.208491409292735</v>
+        <v>1.208491409292861</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.264923400839741</v>
+        <v>3.264923400839871</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.767673355782777</v>
+        <v>1.767673355782666</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.9689798578348848</v>
+        <v>0.9689798578350441</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.785887181074726</v>
+        <v>1.785887181074933</v>
       </c>
       <c r="AH4" t="n">
-        <v>4.298657574161408</v>
+        <v>4.298657574160948</v>
       </c>
       <c r="AI4" t="n">
-        <v>2.674144752760641</v>
+        <v>2.674144752760689</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3.469589527228894</v>
+        <v>3.46958952722923</v>
       </c>
       <c r="AK4" t="n">
-        <v>6.862864315580991</v>
+        <v>6.862864315580866</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.6817879457842483</v>
+        <v>0.6817879457843192</v>
       </c>
       <c r="AM4" t="n">
-        <v>15.49629501675692</v>
+        <v>15.49629501675708</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.510324983972359</v>
+        <v>2.510324983972545</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.952891142870158</v>
+        <v>0.9528911428701554</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.930421394496407</v>
+        <v>0.9304213944965332</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.919326342346213</v>
+        <v>1.919326342346091</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.1687769739247703</v>
+        <v>0.1687769739248587</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -971,130 +971,130 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6066663357735653</v>
+        <v>0.6066663357740247</v>
       </c>
       <c r="D5" t="n">
-        <v>1.320866399815377</v>
+        <v>1.320866399815383</v>
       </c>
       <c r="E5" t="n">
-        <v>3.112861929202811</v>
+        <v>3.112861929202999</v>
       </c>
       <c r="F5" t="n">
-        <v>3.909453149436088</v>
+        <v>3.909453149436697</v>
       </c>
       <c r="G5" t="n">
-        <v>6.88547089029547</v>
+        <v>6.885470890296237</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1432360201315213</v>
+        <v>0.1432360201304857</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2239531668901134</v>
+        <v>0.2239531668902974</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5736938880091221</v>
+        <v>0.5736938880088996</v>
       </c>
       <c r="K5" t="n">
-        <v>1.619157817002448</v>
+        <v>1.619157817002369</v>
       </c>
       <c r="L5" t="n">
-        <v>1.849017317552365</v>
+        <v>1.849017317552508</v>
       </c>
       <c r="M5" t="n">
-        <v>2.20718788360698</v>
+        <v>2.20718788360672</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4355737226913221</v>
+        <v>0.4355737226917125</v>
       </c>
       <c r="O5" t="n">
-        <v>7.757229717870494</v>
+        <v>7.757229717870811</v>
       </c>
       <c r="P5" t="n">
-        <v>6.51742738726111</v>
+        <v>6.517427387261077</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7081880502312403</v>
+        <v>0.708188050231213</v>
       </c>
       <c r="R5" t="n">
-        <v>1.631914885572316</v>
+        <v>1.631914885572081</v>
       </c>
       <c r="S5" t="n">
-        <v>2.355615999098716</v>
+        <v>2.355615999098835</v>
       </c>
       <c r="T5" t="n">
-        <v>0.9676024888598755</v>
+        <v>0.9676024888599168</v>
       </c>
       <c r="U5" t="n">
-        <v>2.374510766592715</v>
+        <v>2.374510766592763</v>
       </c>
       <c r="V5" t="n">
-        <v>2.460119855348297</v>
+        <v>2.460119855348266</v>
       </c>
       <c r="W5" t="n">
-        <v>6.746203651985492</v>
+        <v>6.746203651985399</v>
       </c>
       <c r="X5" t="n">
-        <v>4.764439260035596</v>
+        <v>4.764439260035625</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.034562265962272</v>
+        <v>1.034562265962247</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.6148565746581739</v>
+        <v>0.614856574658048</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.288902434633304</v>
+        <v>2.288902434633449</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.8864508206342352</v>
+        <v>0.8864508206341971</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.237685015733639</v>
+        <v>1.237685015733357</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.018323170089415</v>
+        <v>1.018323170089271</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.5099351903879084</v>
+        <v>0.5099351903878881</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.338047662880494</v>
+        <v>1.338047662880421</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.41951194643741</v>
+        <v>0.4195119464374166</v>
       </c>
       <c r="AH5" t="n">
-        <v>3.19024792810087</v>
+        <v>3.190247928100781</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.4441183033151463</v>
+        <v>0.4441183033154186</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3.154001859803743</v>
+        <v>3.154001859803733</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.4702146170744266</v>
+        <v>0.4702146170742597</v>
       </c>
       <c r="AL5" t="n">
-        <v>8.850692017077886</v>
+        <v>8.850692017077883</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.6091262267702098</v>
+        <v>0.6091262267700994</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.4304323632357835</v>
+        <v>0.4304323632355724</v>
       </c>
       <c r="AO5" t="n">
-        <v>2.753631228351108</v>
+        <v>2.753631228351203</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.9308099016688853</v>
+        <v>0.9308099016690262</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.430875977758541</v>
+        <v>2.430875977758304</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.1295790394660108</v>
+        <v>0.1295790394659577</v>
       </c>
     </row>
     <row r="6" spans="1:44">
@@ -1102,130 +1102,130 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1202261912918104</v>
+        <v>0.1202261912917935</v>
       </c>
       <c r="D6" t="n">
-        <v>3.322494695391399</v>
+        <v>3.322494695391435</v>
       </c>
       <c r="E6" t="n">
-        <v>6.827053948263578</v>
+        <v>6.82705394826332</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3102888304642169</v>
+        <v>0.3102888304642444</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8394451853741547</v>
+        <v>0.8394451853745456</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9636593418252454</v>
+        <v>0.9636593418251745</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3642414372213832</v>
+        <v>0.3642414372214064</v>
       </c>
       <c r="J6" t="n">
-        <v>1.183680244910021</v>
+        <v>1.183680244909381</v>
       </c>
       <c r="K6" t="n">
-        <v>1.135776773582178</v>
+        <v>1.135776773581955</v>
       </c>
       <c r="L6" t="n">
-        <v>1.700231707102803</v>
+        <v>1.700231707103592</v>
       </c>
       <c r="M6" t="n">
-        <v>1.303013537298848</v>
+        <v>1.303013537298786</v>
       </c>
       <c r="N6" t="n">
-        <v>1.78403186263304</v>
+        <v>1.784031862632896</v>
       </c>
       <c r="O6" t="n">
-        <v>2.361715518521928</v>
+        <v>2.361715518521945</v>
       </c>
       <c r="P6" t="n">
-        <v>0.183121102970478</v>
+        <v>0.1831211029703976</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2770689950024769</v>
+        <v>0.27706899500243</v>
       </c>
       <c r="R6" t="n">
-        <v>1.144903197909836</v>
+        <v>1.144903197909459</v>
       </c>
       <c r="S6" t="n">
-        <v>1.718591509207953</v>
+        <v>1.718591509207119</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1463489410914935</v>
+        <v>0.1463489410914199</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2262648007530163</v>
+        <v>0.2262648007530258</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2080524593516284</v>
+        <v>0.2080524593516665</v>
       </c>
       <c r="W6" t="n">
-        <v>0.4950545413201207</v>
+        <v>0.4950545413270953</v>
       </c>
       <c r="X6" t="n">
-        <v>0.4773971022528514</v>
+        <v>0.4773971022548141</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.502739834983621</v>
+        <v>1.502739834983589</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.243810794273756</v>
+        <v>1.243810794274093</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.9888078124783941</v>
+        <v>0.9888078124784091</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.554274493193682</v>
+        <v>7.554274493193792</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3139725072802431</v>
+        <v>0.3139725072804971</v>
       </c>
       <c r="AD6" t="n">
-        <v>3.412324683951949</v>
+        <v>3.412324683951939</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.5705899278276746</v>
+        <v>0.5705899278278282</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.445574324773407</v>
+        <v>2.445574324771734</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.2315429313420897</v>
+        <v>0.2315429313420327</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.176654772193113</v>
+        <v>1.176654772193765</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.662463216141131</v>
+        <v>0.6624632161410623</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.456529456446039</v>
+        <v>1.456529456445904</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.2211721090520236</v>
+        <v>0.2211721090522911</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.08703737521568942</v>
+        <v>0.08703737521556901</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.615540366016441</v>
+        <v>2.615540366016319</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.08432529847410779</v>
+        <v>0.08432529847389479</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.1707310169106827</v>
+        <v>0.1707310169104979</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.4643303381673261</v>
+        <v>0.4643303381673289</v>
       </c>
       <c r="AQ6" t="n">
-        <v>6.823892650350477</v>
+        <v>6.823892650350436</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.05141157699351815</v>
+        <v>0.0514115769933613</v>
       </c>
     </row>
     <row r="7" spans="1:44">
@@ -1233,130 +1233,130 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1550037630292271</v>
+        <v>0.1550037630293753</v>
       </c>
       <c r="D7" t="n">
-        <v>3.989692927877139</v>
+        <v>3.989692927877349</v>
       </c>
       <c r="E7" t="n">
-        <v>9.520965804082783</v>
+        <v>9.520965804083229</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1940125748838373</v>
+        <v>0.1940125748835541</v>
       </c>
       <c r="G7" t="n">
-        <v>1.038720141223018</v>
+        <v>1.038720141223503</v>
       </c>
       <c r="H7" t="n">
-        <v>1.196246417698198</v>
+        <v>1.196246417698245</v>
       </c>
       <c r="I7" t="n">
-        <v>0.251681012314779</v>
+        <v>0.251681012316304</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4120776845654772</v>
+        <v>0.4120776845651977</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4947153947585543</v>
+        <v>0.4947153947578294</v>
       </c>
       <c r="L7" t="n">
-        <v>0.417783293079277</v>
+        <v>0.4177832930794717</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4873441308735685</v>
+        <v>0.4873441308723221</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6589920073142347</v>
+        <v>0.6589920073145691</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8487317176787017</v>
+        <v>0.8487317176778295</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6753751621252365</v>
+        <v>0.6753751621256812</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7402870176715532</v>
+        <v>0.7402870176718681</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8894581734819487</v>
+        <v>0.8894581734818441</v>
       </c>
       <c r="S7" t="n">
-        <v>1.156598454260126</v>
+        <v>1.156598454259599</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5023925876621189</v>
+        <v>0.5023925876615428</v>
       </c>
       <c r="U7" t="n">
-        <v>1.394685327269528</v>
+        <v>1.394685327269526</v>
       </c>
       <c r="V7" t="n">
-        <v>1.48956452102857</v>
+        <v>1.489564521028699</v>
       </c>
       <c r="W7" t="n">
-        <v>3.403122238348316</v>
+        <v>3.403122238348182</v>
       </c>
       <c r="X7" t="n">
-        <v>4.016709722232473</v>
+        <v>4.016709722232344</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.2531821859060429</v>
+        <v>0.2531821859093207</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.4108832571036541</v>
+        <v>0.4108832571055058</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.1601749613487592</v>
+        <v>0.1601749613487783</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.8630724117263224</v>
+        <v>0.8630724117262588</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.220719429861152</v>
+        <v>0.2207194298611017</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.577983275045134</v>
+        <v>0.5779832750454318</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.5948509425039969</v>
+        <v>0.5948509425038735</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.8290277145917151</v>
+        <v>0.8290277145917995</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.2252149728158647</v>
+        <v>0.2252149728156106</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.162689552003674</v>
+        <v>1.162689552003632</v>
       </c>
       <c r="AI7" t="n">
-        <v>1.286341153890017</v>
+        <v>1.28634115388994</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.4069830641882234</v>
+        <v>0.4069830641878701</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.4492084557658982</v>
+        <v>0.4492084557663751</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.3675907679996731</v>
+        <v>0.3675907679995976</v>
       </c>
       <c r="AM7" t="n">
-        <v>1.142035568134852</v>
+        <v>1.142035568134727</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.9361279908657598</v>
+        <v>0.936127990865693</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.9464934893134793</v>
+        <v>0.9464934893134044</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.8869572957436878</v>
+        <v>0.8869572957442612</v>
       </c>
       <c r="AQ7" t="n">
-        <v>6.499077578023753</v>
+        <v>6.499077578023695</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.07822219999550564</v>
+        <v>0.07822219999530924</v>
       </c>
     </row>
     <row r="8" spans="1:44">
@@ -1364,130 +1364,130 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08546661853199125</v>
+        <v>0.08546661853202704</v>
       </c>
       <c r="D8" t="n">
-        <v>5.759565026111497</v>
+        <v>5.759565026111464</v>
       </c>
       <c r="E8" t="n">
-        <v>13.87942637719832</v>
+        <v>13.87942637719821</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2360622138726015</v>
+        <v>0.2360622138722893</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4340300850628493</v>
+        <v>0.4340300850627963</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7935586753657499</v>
+        <v>0.7935586753653087</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1338669426998223</v>
+        <v>0.1338669426999451</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09844929711722088</v>
+        <v>0.0984492971170054</v>
       </c>
       <c r="K8" t="n">
-        <v>0.08352838196973482</v>
+        <v>0.08352838196981255</v>
       </c>
       <c r="L8" t="n">
-        <v>2.342781367271979</v>
+        <v>2.342781367271973</v>
       </c>
       <c r="M8" t="n">
-        <v>1.839214532635575</v>
+        <v>1.839214532635587</v>
       </c>
       <c r="N8" t="n">
-        <v>1.119552533565819</v>
+        <v>1.119552533565568</v>
       </c>
       <c r="O8" t="n">
-        <v>1.094836434981325</v>
+        <v>1.094836434981822</v>
       </c>
       <c r="P8" t="n">
-        <v>0.07690370790398371</v>
+        <v>0.07690370790342176</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1796493525098193</v>
+        <v>0.179649352509861</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1288559830753483</v>
+        <v>0.1288559830754629</v>
       </c>
       <c r="S8" t="n">
-        <v>0.09592087228307075</v>
+        <v>0.09592087228318379</v>
       </c>
       <c r="T8" t="n">
-        <v>0.8556075115021775</v>
+        <v>0.8556075115021992</v>
       </c>
       <c r="U8" t="n">
-        <v>0.07083044123970662</v>
+        <v>0.07083044123978119</v>
       </c>
       <c r="V8" t="n">
-        <v>0.09526244824937517</v>
+        <v>0.09526244824919661</v>
       </c>
       <c r="W8" t="n">
-        <v>1.314531111064197</v>
+        <v>1.314531111064597</v>
       </c>
       <c r="X8" t="n">
-        <v>1.331773825458673</v>
+        <v>1.331773825457674</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.720999294203733</v>
+        <v>2.720999294203645</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1386743745847643</v>
+        <v>0.138674374584998</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.014525328136117</v>
+        <v>1.014525328135921</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.1768196397042144</v>
+        <v>0.1768196397041951</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.3473573205194107</v>
+        <v>0.3473573205192582</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.8347863072445066</v>
+        <v>0.8347863072444826</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.156392398748613</v>
+        <v>0.1563923987485278</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0981709007142938</v>
+        <v>0.09817090071463852</v>
       </c>
       <c r="AG8" t="n">
-        <v>87.7593191441762</v>
+        <v>87.75931914417401</v>
       </c>
       <c r="AH8" t="n">
-        <v>4.687892213062808</v>
+        <v>4.68789221306264</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.1448228892921924</v>
+        <v>0.1448228892924167</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.0902185509996761</v>
+        <v>0.0902185509995157</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.4929279605368477</v>
+        <v>0.4929279605369036</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.1008705260391476</v>
+        <v>0.1008705260388246</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.1176822718657073</v>
+        <v>0.1176822718655532</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.1335952033829778</v>
+        <v>0.1335952033830343</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.1878868869967353</v>
+        <v>0.1878868869967394</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.08522001819706046</v>
+        <v>0.0852200181972657</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2.150462581015276</v>
+        <v>2.150462581015579</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.04188793876032085</v>
+        <v>0.04188793876027527</v>
       </c>
     </row>
     <row r="9" spans="1:44">
@@ -1495,130 +1495,130 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09468933501343255</v>
+        <v>0.09468933501345313</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1777025763051502</v>
+        <v>0.1777025763068483</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3811279144158066</v>
+        <v>0.3811279144174851</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1434379448955883</v>
+        <v>0.1434379448955816</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1540964327802599</v>
+        <v>0.1540964327801958</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3716407621258269</v>
+        <v>0.3716407621259945</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1735754083311851</v>
+        <v>0.1735754083321527</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6517073619478564</v>
+        <v>0.6517073619478552</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8854298453166527</v>
+        <v>0.885429845316669</v>
       </c>
       <c r="L9" t="n">
-        <v>0.226400146829612</v>
+        <v>0.2264001468296231</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2933957232815697</v>
+        <v>0.2933957232815761</v>
       </c>
       <c r="N9" t="n">
-        <v>0.295477583232867</v>
+        <v>0.2954775832328312</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3523092699009067</v>
+        <v>0.3523092699009904</v>
       </c>
       <c r="P9" t="n">
-        <v>0.06986432274203749</v>
+        <v>0.0698643227420702</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.06198058985159114</v>
+        <v>0.06198058985189966</v>
       </c>
       <c r="R9" t="n">
-        <v>0.08818075361611845</v>
+        <v>0.08818075361621064</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1469606593727773</v>
+        <v>0.1469606593727378</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1047369428333968</v>
+        <v>0.1047369428333879</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1372038021504803</v>
+        <v>0.1372038021498787</v>
       </c>
       <c r="V9" t="n">
-        <v>0.05447640090423747</v>
+        <v>0.05447640090410395</v>
       </c>
       <c r="W9" t="n">
-        <v>0.3854531176391369</v>
+        <v>0.3854531176386498</v>
       </c>
       <c r="X9" t="n">
-        <v>0.4910851615838253</v>
+        <v>0.491085161583633</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.684331972327419</v>
+        <v>1.684331972327878</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.048399191108765</v>
+        <v>1.048399191110121</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.1221956560805236</v>
+        <v>0.1221956560804218</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.2770009997090699</v>
+        <v>0.2770009997090702</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.08414856282399293</v>
+        <v>0.08414856282356024</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.155388483907298</v>
+        <v>0.155388483907356</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.4910517361642573</v>
+        <v>0.4910517361643414</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.4876854727766324</v>
+        <v>0.4876854727765995</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.5912821211767577</v>
+        <v>0.5912821211774097</v>
       </c>
       <c r="AH9" t="n">
-        <v>3.409225021646257</v>
+        <v>3.40922502164557</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.07886518613318511</v>
+        <v>0.07886518613306434</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.05725527580422158</v>
+        <v>0.05725527580425918</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.1043703233582196</v>
+        <v>0.1043703233583216</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.1525265775904105</v>
+        <v>0.152526577590423</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.08489524847559295</v>
+        <v>0.08489524847568974</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.07744795119473702</v>
+        <v>0.07744795119395075</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.2637499346555571</v>
+        <v>0.2637499346551253</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.06644911265271193</v>
+        <v>0.06644911265278616</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.2878185631382553</v>
+        <v>0.2878185631383803</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.05662137305525747</v>
+        <v>0.05662137305552455</v>
       </c>
     </row>
     <row r="10" spans="1:44">
@@ -1626,130 +1626,130 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0616720494014066</v>
+        <v>0.06167204940114247</v>
       </c>
       <c r="D10" t="n">
-        <v>1.09199077795147</v>
+        <v>1.091990777951968</v>
       </c>
       <c r="E10" t="n">
-        <v>2.285849540292082</v>
+        <v>2.285849540292466</v>
       </c>
       <c r="F10" t="n">
-        <v>1.937496618987035</v>
+        <v>1.937496618986887</v>
       </c>
       <c r="G10" t="n">
-        <v>1.98813804475143</v>
+        <v>1.988138044751189</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4726263672028884</v>
+        <v>0.4726263672025477</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5519897238344826</v>
+        <v>0.551989723833842</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2169845847527141</v>
+        <v>0.2169845847523424</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2084611309767791</v>
+        <v>0.2084611309769195</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7756661340621892</v>
+        <v>0.775666134062316</v>
       </c>
       <c r="M10" t="n">
-        <v>1.131389903413707</v>
+        <v>1.131389903413668</v>
       </c>
       <c r="N10" t="n">
-        <v>1.900383248752395</v>
+        <v>1.900383248751759</v>
       </c>
       <c r="O10" t="n">
-        <v>2.707324868151399</v>
+        <v>2.707324868151365</v>
       </c>
       <c r="P10" t="n">
-        <v>1.156660115843104</v>
+        <v>1.156660115843092</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5445010541739399</v>
+        <v>0.5445010541738615</v>
       </c>
       <c r="R10" t="n">
-        <v>0.4641338471125492</v>
+        <v>0.4641338471124577</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3663396173231235</v>
+        <v>0.3663396173231571</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1992436474667324</v>
+        <v>0.1992436474668319</v>
       </c>
       <c r="U10" t="n">
-        <v>1.107222958581672</v>
+        <v>1.107222958581654</v>
       </c>
       <c r="V10" t="n">
-        <v>1.116321136360495</v>
+        <v>1.116321136360557</v>
       </c>
       <c r="W10" t="n">
-        <v>2.403105859646539</v>
+        <v>2.403105859646482</v>
       </c>
       <c r="X10" t="n">
-        <v>2.879485994414507</v>
+        <v>2.879485994414611</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.845774002739634</v>
+        <v>1.845774002739648</v>
       </c>
       <c r="Z10" t="n">
-        <v>5.453059933867596</v>
+        <v>5.453059933867539</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.153980568497794</v>
+        <v>1.153980568497443</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.367270793891577</v>
+        <v>1.36727079389132</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.210926940619825</v>
+        <v>1.210926940619799</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.7952612677671611</v>
+        <v>0.7952612677680229</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.1307076681548693</v>
+        <v>0.1307076681549116</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.7112370725641124</v>
+        <v>0.7112370725639019</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.1137335406981901</v>
+        <v>0.1137335406981803</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.535890995727337</v>
+        <v>1.535890995727359</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.08147474707808967</v>
+        <v>0.08147474707832787</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.1951583039277516</v>
+        <v>0.1951583039275236</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.5089841917691017</v>
+        <v>0.5089841917690029</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.8966426893391698</v>
+        <v>0.8966426893392112</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.3780935119459474</v>
+        <v>0.3780935119461982</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.2542976816402928</v>
+        <v>0.2542976816405934</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.311172018785886</v>
+        <v>1.311172018785741</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.764015058139596</v>
+        <v>2.764015058139692</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.8034281386038785</v>
+        <v>0.8034281386043154</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.06026609837196536</v>
+        <v>0.06026609837248348</v>
       </c>
     </row>
     <row r="11" spans="1:44">
@@ -1757,130 +1757,130 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08016925598008742</v>
+        <v>0.08016925598027579</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1363459957803332</v>
+        <v>0.1363459957802748</v>
       </c>
       <c r="E11" t="n">
-        <v>1.046237344842366</v>
+        <v>1.046237344842874</v>
       </c>
       <c r="F11" t="n">
-        <v>1.053515571871036</v>
+        <v>1.053515571871406</v>
       </c>
       <c r="G11" t="n">
-        <v>1.805789737805391</v>
+        <v>1.805789737805531</v>
       </c>
       <c r="H11" t="n">
-        <v>1.482879964863186</v>
+        <v>1.482879964863132</v>
       </c>
       <c r="I11" t="n">
-        <v>0.907652842063367</v>
+        <v>0.9076528420632877</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9105234843846245</v>
+        <v>0.9105234843846104</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7430362414147574</v>
+        <v>0.7430362414147609</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8242171662878564</v>
+        <v>0.8242171662879447</v>
       </c>
       <c r="M11" t="n">
-        <v>3.348758548112066</v>
+        <v>3.348758548111913</v>
       </c>
       <c r="N11" t="n">
-        <v>5.778590017280988</v>
+        <v>5.778590017281217</v>
       </c>
       <c r="O11" t="n">
-        <v>2.075220544599305</v>
+        <v>2.075220544599432</v>
       </c>
       <c r="P11" t="n">
-        <v>1.658483963701856</v>
+        <v>1.65848396370173</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.00676913671011</v>
+        <v>3.00676913670991</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5319911233164361</v>
+        <v>0.5319911233167812</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8806459211816511</v>
+        <v>0.8806459211816687</v>
       </c>
       <c r="T11" t="n">
-        <v>0.7264560297788065</v>
+        <v>0.7264560297785058</v>
       </c>
       <c r="U11" t="n">
-        <v>1.096491468817509</v>
+        <v>1.096491468817462</v>
       </c>
       <c r="V11" t="n">
-        <v>1.071233950714556</v>
+        <v>1.071233950714342</v>
       </c>
       <c r="W11" t="n">
-        <v>0.9766354210580303</v>
+        <v>0.9766354210581303</v>
       </c>
       <c r="X11" t="n">
-        <v>0.9932552512309055</v>
+        <v>0.9932552512308958</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.9693841772728705</v>
+        <v>0.969384177272546</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.579707072039371</v>
+        <v>1.579707072039427</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.182106307746899</v>
+        <v>1.182106307747016</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.153737767011639</v>
+        <v>1.153737767011473</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.528708399719998</v>
+        <v>4.528708399719847</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.118583060776332</v>
+        <v>1.118583060776564</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.6102911729596042</v>
+        <v>0.6102911729594931</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.5841979263640277</v>
+        <v>0.5841979263640019</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.9537771503796788</v>
+        <v>0.9537771503797167</v>
       </c>
       <c r="AH11" t="n">
-        <v>8.359833009812702</v>
+        <v>8.359833009812695</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.8843408283219639</v>
+        <v>0.8843408283219603</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.667962282660592</v>
+        <v>1.667962282661166</v>
       </c>
       <c r="AK11" t="n">
-        <v>1.502820283725688</v>
+        <v>1.502820283725828</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.834702564140686</v>
+        <v>1.834702564140771</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.7642810733083879</v>
+        <v>0.7642810733083846</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.9692195546319995</v>
+        <v>0.9692195546322154</v>
       </c>
       <c r="AO11" t="n">
-        <v>3.242917693565619</v>
+        <v>3.242917693565598</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.7764575568166544</v>
+        <v>0.7764575568168148</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.853197984492742</v>
+        <v>2.85319798449278</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.06686060529779254</v>
+        <v>0.06686060529783627</v>
       </c>
     </row>
   </sheetData>
@@ -2175,7 +2175,7 @@
         <v>4.399516834414543</v>
       </c>
       <c r="E3" t="n">
-        <v>5.650923337619867</v>
+        <v>5.637590004286533</v>
       </c>
       <c r="F3" t="n">
         <v>7.172859102725608</v>
@@ -2238,7 +2238,7 @@
         <v>6.07249239399703</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.625020488037549</v>
+        <v>5.650661513678575</v>
       </c>
       <c r="AA3" t="n">
         <v>6.750368231848818</v>
@@ -2268,7 +2268,7 @@
         <v>7.767234462972336</v>
       </c>
       <c r="AJ3" t="n">
-        <v>7.399475529749342</v>
+        <v>7.395738462906948</v>
       </c>
       <c r="AK3" t="n">
         <v>5.66176486863993</v>
@@ -2303,7 +2303,7 @@
         <v>9.541061484533698</v>
       </c>
       <c r="D4" t="n">
-        <v>4.381071799715686</v>
+        <v>4.383262962779721</v>
       </c>
       <c r="E4" t="n">
         <v>5.315410221450478</v>
@@ -2408,7 +2408,7 @@
         <v>5.774204660528288</v>
       </c>
       <c r="AM4" t="n">
-        <v>4.514063828541723</v>
+        <v>4.508300139780915</v>
       </c>
       <c r="AN4" t="n">
         <v>7.040513850150857</v>
@@ -2420,7 +2420,7 @@
         <v>8.099971348145139</v>
       </c>
       <c r="AQ4" t="n">
-        <v>3.830484309671814</v>
+        <v>3.828315116825667</v>
       </c>
       <c r="AR4" t="n">
         <v>9.573557122504006</v>
@@ -2434,7 +2434,7 @@
         <v>6.515816217891642</v>
       </c>
       <c r="D5" t="n">
-        <v>7.603752880246198</v>
+        <v>7.602912156074803</v>
       </c>
       <c r="E5" t="n">
         <v>6.850443499429623</v>
@@ -2625,7 +2625,7 @@
         <v>6.691695945611195</v>
       </c>
       <c r="X6" t="n">
-        <v>7.420834470329375</v>
+        <v>7.425089789478311</v>
       </c>
       <c r="Y6" t="n">
         <v>5.812999239390445</v>
@@ -2649,7 +2649,7 @@
         <v>6.25976119322123</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.063668170801846</v>
+        <v>4.085173547145932</v>
       </c>
       <c r="AG6" t="n">
         <v>6.647665575726925</v>
@@ -2813,7 +2813,7 @@
         <v>6.465889205683553</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.580327227374974</v>
+        <v>2.584105284012317</v>
       </c>
       <c r="AR7" t="n">
         <v>10.23214424326525</v>
@@ -2869,7 +2869,7 @@
         <v>7.613901256602607</v>
       </c>
       <c r="R8" t="n">
-        <v>9.555367388199759</v>
+        <v>9.558122275701923</v>
       </c>
       <c r="S8" t="n">
         <v>8.016105301079401</v>
@@ -2884,7 +2884,7 @@
         <v>7.581442682400501</v>
       </c>
       <c r="W8" t="n">
-        <v>3.92879759522657</v>
+        <v>3.954148708393558</v>
       </c>
       <c r="X8" t="n">
         <v>5.724360669149164</v>
@@ -2899,7 +2899,7 @@
         <v>7.059932308472143</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.01491400904993</v>
+        <v>9.017944312080232</v>
       </c>
       <c r="AC8" t="n">
         <v>6.189824558880028</v>
@@ -2941,7 +2941,7 @@
         <v>8.414185540506036</v>
       </c>
       <c r="AP8" t="n">
-        <v>9.738455574933175</v>
+        <v>9.733623372187076</v>
       </c>
       <c r="AQ8" t="n">
         <v>1.986296644314332</v>
@@ -3092,7 +3092,7 @@
         <v>3.296917686084096</v>
       </c>
       <c r="E10" t="n">
-        <v>4.255829809041537</v>
+        <v>4.265682025790306</v>
       </c>
       <c r="F10" t="n">
         <v>5.46107370421881</v>
@@ -3143,7 +3143,7 @@
         <v>7.521189648373319</v>
       </c>
       <c r="V10" t="n">
-        <v>7.656171309822173</v>
+        <v>7.65726828229415</v>
       </c>
       <c r="W10" t="n">
         <v>5.667799160596565</v>
@@ -3220,7 +3220,7 @@
         <v>10.2282923933362</v>
       </c>
       <c r="D11" t="n">
-        <v>9.714523310516205</v>
+        <v>9.714277174137676</v>
       </c>
       <c r="E11" t="n">
         <v>6.890595852710985</v>
@@ -3295,7 +3295,7 @@
         <v>6.532639163560491</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.567313023845017</v>
+        <v>7.564028592859993</v>
       </c>
       <c r="AD11" t="n">
         <v>6.887160123129934</v>
@@ -3498,130 +3498,130 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7796806854529851</v>
+        <v>0.7796806854531468</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7011454851536804</v>
+        <v>0.7011454851514576</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5752402406052818</v>
+        <v>0.5752402406052799</v>
       </c>
       <c r="F2" t="n">
-        <v>0.587209323276076</v>
+        <v>0.5872093232760494</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7198300319375471</v>
+        <v>0.7198300319376323</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6826681099144715</v>
+        <v>0.6826681099144606</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6043274788507669</v>
+        <v>0.604327478850781</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5798154964912996</v>
+        <v>0.5798154964913086</v>
       </c>
       <c r="K2" t="n">
-        <v>0.583483948566677</v>
+        <v>0.5834839485667127</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7156963081998656</v>
+        <v>0.7156963081998775</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5988128375226143</v>
+        <v>0.5988128375224293</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5752748114305277</v>
+        <v>0.5752748114305276</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5770228620005086</v>
+        <v>0.5770228620005085</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5675268367708823</v>
+        <v>0.5675268367708849</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5771703358776598</v>
+        <v>0.5771703358776641</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6665452721012929</v>
+        <v>0.6665452721012989</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5738569100220342</v>
+        <v>0.5738569100220247</v>
       </c>
       <c r="T2" t="n">
-        <v>0.563425369052526</v>
+        <v>0.5634253690525284</v>
       </c>
       <c r="U2" t="n">
-        <v>0.572968619838919</v>
+        <v>0.5729686198389164</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5645015276972766</v>
+        <v>0.5645015276972769</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5716043068087315</v>
+        <v>0.571604306808735</v>
       </c>
       <c r="X2" t="n">
-        <v>0.5753706742521103</v>
+        <v>0.5753706742521104</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6131801481759408</v>
+        <v>0.613180148175947</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.6162250576735072</v>
+        <v>0.6162250576735041</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.729933125828902</v>
+        <v>0.7299331258288777</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.6115111928494343</v>
+        <v>0.6115111928494577</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.6833898279296358</v>
+        <v>0.6833898279328001</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.6151946221393906</v>
+        <v>0.6151946221393882</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.6175445460376184</v>
+        <v>0.6175445460375973</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.6184910143320672</v>
+        <v>0.6184910143320324</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.6305527921646017</v>
+        <v>0.6305527921646026</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.6251655609443605</v>
+        <v>0.6251655609443714</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.6222949845870024</v>
+        <v>0.6222949845869812</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.6154882555756739</v>
+        <v>0.6154882555756758</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.6169661253928891</v>
+        <v>0.6169661253929146</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.6223830848854705</v>
+        <v>0.6223830848854709</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.6383660018550747</v>
+        <v>0.6383660018550383</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.7084942384027847</v>
+        <v>0.7084942384010631</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.5879226626579939</v>
+        <v>0.5879226626579335</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.7500684794827137</v>
+        <v>0.7500684794826682</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.5842231833298572</v>
+        <v>0.5842231833298577</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.7722184380163851</v>
+        <v>0.772218438016391</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -3629,130 +3629,130 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6910815268459796</v>
+        <v>0.6910815268468641</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6238170233594399</v>
+        <v>0.6238170233593617</v>
       </c>
       <c r="E3" t="n">
-        <v>0.576187033147036</v>
+        <v>0.5761870331470365</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7178183577557957</v>
+        <v>0.7178183577556758</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5870145048329738</v>
+        <v>0.5870145048329793</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5879091927515735</v>
+        <v>0.5879091927515718</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5880504534703022</v>
+        <v>0.5880504534700037</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5975648053400477</v>
+        <v>0.5975648053437151</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5883029424276482</v>
+        <v>0.5883029424276393</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5795057111011117</v>
+        <v>0.5795057111011355</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5802996518754284</v>
+        <v>0.5802996518754288</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5785022252252632</v>
+        <v>0.5785022252252353</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5678619732243666</v>
+        <v>0.5678619732243669</v>
       </c>
       <c r="P3" t="n">
-        <v>0.6536459471295826</v>
+        <v>0.6536459471308438</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5803721937165847</v>
+        <v>0.5803721937165843</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6330969225432053</v>
+        <v>0.6330969225434032</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5816419690557042</v>
+        <v>0.58164196905571</v>
       </c>
       <c r="T3" t="n">
-        <v>0.630087904823728</v>
+        <v>0.6300879048238609</v>
       </c>
       <c r="U3" t="n">
-        <v>0.582783273384865</v>
+        <v>0.5827832733848716</v>
       </c>
       <c r="V3" t="n">
-        <v>0.628486100310351</v>
+        <v>0.6284861003102979</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5800742814311706</v>
+        <v>0.5800742814311615</v>
       </c>
       <c r="X3" t="n">
         <v>0.5798304753442487</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6279510400878398</v>
+        <v>0.6279510400878389</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6337502070208569</v>
+        <v>0.6337502070208533</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.6556574835342243</v>
+        <v>0.6556574835342025</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.6291751965792596</v>
+        <v>0.6291751965792646</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6295252406223654</v>
+        <v>0.629525240622361</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.633189778874892</v>
+        <v>0.6331897788748868</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.6295570394485862</v>
+        <v>0.629557039448587</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.6352131395570902</v>
+        <v>0.6352131395570481</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.6162603221891472</v>
+        <v>0.6162603221891352</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.6290566805385283</v>
+        <v>0.6290566805385368</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.6901972204133114</v>
+        <v>0.6901972204133839</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.6151369477185744</v>
+        <v>0.6151369477185745</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.6238021832763874</v>
+        <v>0.6238021832763866</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.6317945950005668</v>
+        <v>0.6317945950005661</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.674302384776956</v>
+        <v>0.674302384777808</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.6444002345986268</v>
+        <v>0.6444002345991581</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.6068221729432598</v>
+        <v>0.6068221729432713</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.6330181310468228</v>
+        <v>0.6330181310468225</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.6168709121883551</v>
+        <v>0.6168709121884329</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.6783968661383896</v>
+        <v>0.6783968661383628</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -3760,130 +3760,130 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7224455657786095</v>
+        <v>0.7224455657796778</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7554643014975384</v>
+        <v>0.7554643014973793</v>
       </c>
       <c r="E4" t="n">
         <v>0.5677019720777936</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5995360120173805</v>
+        <v>0.5995360120174065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6000090918746903</v>
+        <v>0.6000090918746608</v>
       </c>
       <c r="H4" t="n">
-        <v>0.602301383777947</v>
+        <v>0.6023013837779682</v>
       </c>
       <c r="I4" t="n">
-        <v>0.579279312933866</v>
+        <v>0.5792793129338654</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5747956153778054</v>
+        <v>0.5747956153777968</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6545829210985803</v>
+        <v>0.6545829210985621</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5849274133667836</v>
+        <v>0.5849274133667278</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5802108743119704</v>
+        <v>0.5802108743119705</v>
       </c>
       <c r="N4" t="n">
-        <v>0.657893701150054</v>
+        <v>0.6578937011499904</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6114417004005144</v>
+        <v>0.6114417004006713</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5671121846164809</v>
+        <v>0.5671121846164803</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6221154198323015</v>
+        <v>0.622115419832347</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6592105699276043</v>
+        <v>0.6592105699275513</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5695107316150445</v>
+        <v>0.569510731615045</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5752309114415586</v>
+        <v>0.5752309114415581</v>
       </c>
       <c r="U4" t="n">
-        <v>0.6576228299939444</v>
+        <v>0.6576228299915404</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6320361929204649</v>
+        <v>0.6320361929205071</v>
       </c>
       <c r="W4" t="n">
-        <v>0.6435995099269556</v>
+        <v>0.6435995099269812</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6242787346671896</v>
+        <v>0.624278734667181</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7370874693246842</v>
+        <v>0.7370874693246061</v>
       </c>
       <c r="Z4" t="n">
         <v>0.6177156792642069</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.6689501066190378</v>
+        <v>0.668950106619054</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6102577183007354</v>
+        <v>0.6102577183007356</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.616676683085468</v>
+        <v>0.616676683085452</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.6245540849336845</v>
+        <v>0.6245540849336886</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.7010296381643472</v>
+        <v>0.7010296381643636</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.6295841201315635</v>
+        <v>0.6295841201315838</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.7038505046774222</v>
+        <v>0.70385050467748</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.6218005917430477</v>
+        <v>0.6218005917430471</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.7563418679527268</v>
+        <v>0.7563418679527218</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.6810426487128538</v>
+        <v>0.6810426487128909</v>
       </c>
       <c r="AK4" t="n">
         <v>0.6047999446704235</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.663654112427647</v>
+        <v>0.6636541124276487</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.6053900199456744</v>
+        <v>0.6053900199456745</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.630067531436255</v>
+        <v>0.6300675314362714</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.6892138380576307</v>
+        <v>0.6892138380576556</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.6840646689748189</v>
+        <v>0.6840646689748198</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.584201366689452</v>
+        <v>0.584201366689451</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.7257605630948046</v>
+        <v>0.7257605630945451</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -3891,130 +3891,130 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6823598815022999</v>
+        <v>0.6823598815022678</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6866500596088255</v>
+        <v>0.6866500596084741</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5869995711047519</v>
+        <v>0.5869995711047714</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6275365153726121</v>
+        <v>0.6275365153705665</v>
       </c>
       <c r="G5" t="n">
         <v>0.5812450226334253</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6040641372909501</v>
+        <v>0.6040641372918596</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5783108082692587</v>
+        <v>0.5783108082687723</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5930883418379059</v>
+        <v>0.5930883418378563</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5783615935775882</v>
+        <v>0.5783615935775872</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5944105671296485</v>
+        <v>0.5944105671296841</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5858903073534554</v>
+        <v>0.5858903073534547</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6703994426165392</v>
+        <v>0.6703994426169022</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6407375466869594</v>
+        <v>0.6407375466870096</v>
       </c>
       <c r="P5" t="n">
-        <v>0.569154403929193</v>
+        <v>0.5691544039291934</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5929222292850779</v>
+        <v>0.5929222292851709</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5710740177896484</v>
+        <v>0.5710740177897737</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5719151869034109</v>
+        <v>0.5719151869034099</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6321431223583746</v>
+        <v>0.6321431223583915</v>
       </c>
       <c r="U5" t="n">
-        <v>0.7151716655334986</v>
+        <v>0.7151716655331989</v>
       </c>
       <c r="V5" t="n">
-        <v>0.565920661669027</v>
+        <v>0.5659206616690279</v>
       </c>
       <c r="W5" t="n">
-        <v>0.5814878268787973</v>
+        <v>0.5814878268787972</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5635297789373772</v>
+        <v>0.5635297789373775</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.6152492706759248</v>
+        <v>0.6152492706759263</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.6706882360930191</v>
+        <v>0.6706882360928155</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.5979770600765918</v>
+        <v>0.5979770600765922</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.6109161909570633</v>
+        <v>0.6109161909570368</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.6802200508224635</v>
+        <v>0.6802200508224383</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.6154784470890808</v>
+        <v>0.6154784470890784</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.6866805201410181</v>
+        <v>0.6866805201409373</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.6324806116282597</v>
+        <v>0.6324806116282575</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.7014903271019403</v>
+        <v>0.7014903271019047</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.6169618165464589</v>
+        <v>0.6169618165464588</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.6682022702380905</v>
+        <v>0.6682022702376691</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.6220058417882681</v>
+        <v>0.6220058417882639</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.632820482054295</v>
+        <v>0.6328204820544298</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.6251532478864986</v>
+        <v>0.6251532478864984</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.7107365089070827</v>
+        <v>0.7107365089072045</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.6251935258492268</v>
+        <v>0.6251935258491952</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.7467668784690248</v>
+        <v>0.7467668784690356</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.7203755932535856</v>
+        <v>0.7203755932493819</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.5840776606276232</v>
+        <v>0.5840776606276249</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.6557910122362879</v>
+        <v>0.6557910122386365</v>
       </c>
     </row>
     <row r="6" spans="1:44">
@@ -4022,130 +4022,130 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7499257019099576</v>
+        <v>0.7499257019101916</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7250661245365254</v>
+        <v>0.7250661245365668</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5691351749858032</v>
+        <v>0.5691351749858031</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5779182684694418</v>
+        <v>0.5779182684694486</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5943469194109136</v>
+        <v>0.5943469194104943</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5791292572544973</v>
+        <v>0.5791292572544979</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5807499064855869</v>
+        <v>0.5807499064855873</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7334282118643705</v>
+        <v>0.7334282118643518</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5790618435481321</v>
+        <v>0.5790618435481329</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6338587451106086</v>
+        <v>0.6338587451072953</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5611063136198922</v>
+        <v>0.5611063136198919</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6585337801932286</v>
+        <v>0.6585337801944204</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5771326749600381</v>
+        <v>0.5771326749600387</v>
       </c>
       <c r="P6" t="n">
-        <v>0.690162024186156</v>
+        <v>0.6901620241863303</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6547747620865904</v>
+        <v>0.6547747620865709</v>
       </c>
       <c r="R6" t="n">
-        <v>0.59203867623009</v>
+        <v>0.5920386762297836</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5706165689257752</v>
+        <v>0.5706165689257749</v>
       </c>
       <c r="T6" t="n">
-        <v>0.5990581596127312</v>
+        <v>0.5990581596131107</v>
       </c>
       <c r="U6" t="n">
-        <v>0.6726937900816482</v>
+        <v>0.6726937900799557</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5733119483434407</v>
+        <v>0.5733119483437172</v>
       </c>
       <c r="W6" t="n">
-        <v>0.621283512973647</v>
+        <v>0.6212835129714147</v>
       </c>
       <c r="X6" t="n">
-        <v>0.5848448627261675</v>
+        <v>0.5848448627257128</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.6187878118441656</v>
+        <v>0.618787811844169</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.618257290329612</v>
+        <v>0.6182572903296625</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.6180562439922839</v>
+        <v>0.6180562439922827</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6323409990791782</v>
+        <v>0.632340999079175</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.6239125588282748</v>
+        <v>0.6239125588283113</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.7404864534016776</v>
+        <v>0.7404864534016535</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.6545277100915444</v>
+        <v>0.654527710091507</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.6304346049004748</v>
+        <v>0.6304346049004795</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.7476723542281349</v>
+        <v>0.7476723542283144</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.6233324509893604</v>
+        <v>0.6233324509893405</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.6615569043828248</v>
+        <v>0.6615569043866475</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.611913657691342</v>
+        <v>0.6119136576913381</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.5993229395703304</v>
+        <v>0.5993229395703434</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.6088135029996669</v>
+        <v>0.6088135029997528</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.7230696275923185</v>
+        <v>0.7230696275923219</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.6751074154579751</v>
+        <v>0.6751074154569473</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.5946241699607844</v>
+        <v>0.5946241699610785</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.6747060487162075</v>
+        <v>0.6747060487203969</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.584223806495953</v>
+        <v>0.5842238064959526</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.604134823408803</v>
+        <v>0.604134823407374</v>
       </c>
     </row>
     <row r="7" spans="1:44">
@@ -4153,130 +4153,130 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7229330297474408</v>
+        <v>0.7229330297475246</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7168729274446378</v>
+        <v>0.716872927444687</v>
       </c>
       <c r="E7" t="n">
         <v>0.5721283016475279</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6276109550556527</v>
+        <v>0.6276109550570503</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5864195574766798</v>
+        <v>0.5864195574760472</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5716368530056365</v>
+        <v>0.5716368530056338</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5749868833868437</v>
+        <v>0.5749868833866569</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7513709458410948</v>
+        <v>0.7513709458412592</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5784907725064201</v>
+        <v>0.5784907725064188</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5900192503289976</v>
+        <v>0.5900192503291837</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5835398623766014</v>
+        <v>0.5835398623766123</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6140709429803693</v>
+        <v>0.6140709429801865</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5857440159299323</v>
+        <v>0.5857440159298953</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5745906650673608</v>
+        <v>0.5745906650673406</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6132487759302738</v>
+        <v>0.6132487759301404</v>
       </c>
       <c r="R7" t="n">
-        <v>0.5882167481081259</v>
+        <v>0.5882167481078584</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5826909577251328</v>
+        <v>0.5826909577251345</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5949554136182633</v>
+        <v>0.5949554136183042</v>
       </c>
       <c r="U7" t="n">
-        <v>0.5814803296984971</v>
+        <v>0.5814803296984923</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5774243760812622</v>
+        <v>0.5774243760812617</v>
       </c>
       <c r="W7" t="n">
-        <v>0.5900834216870626</v>
+        <v>0.5900834216870293</v>
       </c>
       <c r="X7" t="n">
-        <v>0.5740412771167691</v>
+        <v>0.5740412771167624</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.630626786425078</v>
+        <v>0.6306267864239394</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.6521619884255521</v>
+        <v>0.6521619884250806</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.6318053453296876</v>
+        <v>0.6318053453298946</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.6257677811717799</v>
+        <v>0.6257677811718184</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.6983191489898586</v>
+        <v>0.6983191489900502</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.6291683411480641</v>
+        <v>0.6291683411480733</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.6309347639940878</v>
+        <v>0.6309347639940723</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.6273707609635754</v>
+        <v>0.6273707609636007</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.6244863084714363</v>
+        <v>0.6244863084717452</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.640981861548763</v>
+        <v>0.6409818615487483</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.6097301183519762</v>
+        <v>0.6097301183519734</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.6449937187124263</v>
+        <v>0.6449937187124605</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.6696783251760474</v>
+        <v>0.6696783251757606</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.6833166845345767</v>
+        <v>0.6833166845347201</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.6235197087566479</v>
+        <v>0.6235197087566399</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.6212209245622305</v>
+        <v>0.6212209245622425</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.6493066002070447</v>
+        <v>0.6493066002070491</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.6191223979567801</v>
+        <v>0.6191223979567737</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.5842235346599234</v>
+        <v>0.5842235346599233</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.7133644248093337</v>
+        <v>0.7133644248100915</v>
       </c>
     </row>
     <row r="8" spans="1:44">
@@ -4284,130 +4284,130 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6873753961059166</v>
+        <v>0.6873753961038161</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6305341210573601</v>
+        <v>0.6305341210473747</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5687708489031531</v>
+        <v>0.5687708489031532</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7344303202710829</v>
+        <v>0.7344303202709088</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6630778479821872</v>
+        <v>0.6630778479744505</v>
       </c>
       <c r="H8" t="n">
-        <v>0.675939308679129</v>
+        <v>0.6759393086791443</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6343764730828507</v>
+        <v>0.6343764730828806</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7002617682840077</v>
+        <v>0.7002617682831128</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6415619255664202</v>
+        <v>0.6415619255650576</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6344521880538941</v>
+        <v>0.6344521880616489</v>
       </c>
       <c r="M8" t="n">
-        <v>0.563076776589745</v>
+        <v>0.5630767765897443</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7092081963221814</v>
+        <v>0.7092081963224012</v>
       </c>
       <c r="O8" t="n">
-        <v>0.570514058558996</v>
+        <v>0.5705140585589957</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6352420264543993</v>
+        <v>0.6352420264519774</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7106565037827862</v>
+        <v>0.7106565037825936</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6288628299494918</v>
+        <v>0.6288628299497452</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6439610566211044</v>
+        <v>0.6439610566319384</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7633689276091203</v>
+        <v>0.7633689276093232</v>
       </c>
       <c r="U8" t="n">
-        <v>0.6216502581559874</v>
+        <v>0.6216502581518453</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6750676604718822</v>
+        <v>0.6750676604703578</v>
       </c>
       <c r="W8" t="n">
-        <v>0.6162345068636508</v>
+        <v>0.6162345068654819</v>
       </c>
       <c r="X8" t="n">
-        <v>0.6467915428113445</v>
+        <v>0.6467915428115334</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.6290278794883059</v>
+        <v>0.6290278794883081</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.6438335075519017</v>
+        <v>0.643833507551592</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.6985713274927388</v>
+        <v>0.6985713274927277</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.6380971322425595</v>
+        <v>0.6380971322426124</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.7064526288857707</v>
+        <v>0.7064526288856655</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.6380812982394549</v>
+        <v>0.6380812982394457</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.6050429987013454</v>
+        <v>0.6050429987012014</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.6240565311766358</v>
+        <v>0.6240565311775546</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.7212405601641618</v>
+        <v>0.7212405601641645</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.6158538489097419</v>
+        <v>0.6158538489097418</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.6910002824844147</v>
+        <v>0.6910002824841446</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.598963809221937</v>
+        <v>0.5989638092278288</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.6827198715787294</v>
+        <v>0.6827198715782749</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.7137558452420815</v>
+        <v>0.7137558452413943</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.7089491769833229</v>
+        <v>0.7089491769828562</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.6600928984895524</v>
+        <v>0.6600928984876175</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.6656808561921332</v>
+        <v>0.6656808561921683</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.6708419543600956</v>
+        <v>0.6708419543634185</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.5842241971630022</v>
+        <v>0.5842241971630021</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.6700556849445269</v>
+        <v>0.6700556849465686</v>
       </c>
     </row>
     <row r="9" spans="1:44">
@@ -4415,130 +4415,130 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7227008586185332</v>
+        <v>0.7227008586190103</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6424730977896018</v>
+        <v>0.6424730977896496</v>
       </c>
       <c r="E9" t="n">
-        <v>0.575919702821815</v>
+        <v>0.5759197028217072</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5752140717944771</v>
+        <v>0.5752140717943284</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6111120341059262</v>
+        <v>0.6111120341059474</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7392836269784783</v>
+        <v>0.7392836269780617</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5894775230766762</v>
+        <v>0.5894775230757469</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6612229725949357</v>
+        <v>0.6612229725960365</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5816193717621906</v>
+        <v>0.5816193717621905</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5773848617258485</v>
+        <v>0.5773848617264957</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5750273602004109</v>
+        <v>0.5750273602004091</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6065636164060355</v>
+        <v>0.6065636164073621</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6229259278622699</v>
+        <v>0.6229259278621977</v>
       </c>
       <c r="P9" t="n">
-        <v>0.6800286113213814</v>
+        <v>0.6800286113149996</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6796169658898084</v>
+        <v>0.6796169658912595</v>
       </c>
       <c r="R9" t="n">
-        <v>0.7305211407091949</v>
+        <v>0.7305211407094675</v>
       </c>
       <c r="S9" t="n">
-        <v>0.6280810837514323</v>
+        <v>0.6280810837507914</v>
       </c>
       <c r="T9" t="n">
-        <v>0.582160295698696</v>
+        <v>0.582160295699504</v>
       </c>
       <c r="U9" t="n">
-        <v>0.7194562609208216</v>
+        <v>0.7194562609212458</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6279624337059349</v>
+        <v>0.6279624337025165</v>
       </c>
       <c r="W9" t="n">
-        <v>0.618088899248562</v>
+        <v>0.618088899251614</v>
       </c>
       <c r="X9" t="n">
-        <v>0.6710991976470536</v>
+        <v>0.6710991976472369</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.5948641522176289</v>
+        <v>0.5948641522176696</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.6255217630230292</v>
+        <v>0.6255217630230334</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.6280191472000622</v>
+        <v>0.6280191472001821</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.6215140549136355</v>
+        <v>0.6215140549136218</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.6325128448188513</v>
+        <v>0.6325128448206001</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.6260323204136587</v>
+        <v>0.6260323204136751</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.7062303982502574</v>
+        <v>0.7062303982500956</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.6301939401439477</v>
+        <v>0.630193940143942</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.7069792898750954</v>
+        <v>0.70697928987487</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.6191828014233945</v>
+        <v>0.6191828014233876</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.680526733007276</v>
+        <v>0.6805267330066883</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.6499121576714414</v>
+        <v>0.649912157671336</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.7535394834207823</v>
+        <v>0.7535394834207276</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.6294938329090729</v>
+        <v>0.629493832909066</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.6270586275793752</v>
+        <v>0.6270586275777557</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.6812156934835137</v>
+        <v>0.681215693489313</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.7260795639974312</v>
+        <v>0.7260795639972835</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.5927917944992099</v>
+        <v>0.5927917945078964</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.5925037718230121</v>
+        <v>0.5925037718230179</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.6291529317212339</v>
+        <v>0.6291529317241762</v>
       </c>
     </row>
     <row r="10" spans="1:44">
@@ -4546,130 +4546,130 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6469810674477581</v>
+        <v>0.6469810674452597</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6829921109885949</v>
+        <v>0.6829921109870415</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5727479640644462</v>
+        <v>0.5727479640644467</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5747130498858011</v>
+        <v>0.5747130498858002</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5797846136531203</v>
+        <v>0.5797846136531212</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5719670578522907</v>
+        <v>0.5719670578522889</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5729067420874048</v>
+        <v>0.5729067420874067</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5922445926485643</v>
+        <v>0.5922445926487397</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5838675670619889</v>
+        <v>0.5838675670616215</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5730966653688143</v>
+        <v>0.5730966653688438</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5725215945304323</v>
+        <v>0.5725215945304316</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5677261630117971</v>
+        <v>0.5677261630117975</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5752813543304031</v>
+        <v>0.5752813543304033</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5806611741068992</v>
+        <v>0.5806611741068843</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5836998970400286</v>
+        <v>0.583699897039619</v>
       </c>
       <c r="R10" t="n">
-        <v>0.6759637319788105</v>
+        <v>0.6759637319788872</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7546353489934198</v>
+        <v>0.7546353489931635</v>
       </c>
       <c r="T10" t="n">
-        <v>0.745404480555753</v>
+        <v>0.7454044805543313</v>
       </c>
       <c r="U10" t="n">
-        <v>0.637085149566616</v>
+        <v>0.6370851495670391</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5563095007378306</v>
+        <v>0.5563095007378299</v>
       </c>
       <c r="W10" t="n">
-        <v>0.7364944794275416</v>
+        <v>0.7364944794274334</v>
       </c>
       <c r="X10" t="n">
-        <v>0.568453475574334</v>
+        <v>0.5684534755743341</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.6019013475112484</v>
+        <v>0.6019013475112485</v>
       </c>
       <c r="Z10" t="n">
         <v>0.6256804596629352</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.6980752908877957</v>
+        <v>0.698075290887611</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.6248388345918869</v>
+        <v>0.6248388345918816</v>
       </c>
       <c r="AC10" t="n">
         <v>0.632344996247497</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.6283364791943019</v>
+        <v>0.6283364791942342</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.6218819939162246</v>
+        <v>0.6218819939164562</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.6196392061881982</v>
+        <v>0.619639206188191</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.639294809450885</v>
+        <v>0.6392948094514561</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.632436916080349</v>
+        <v>0.6324369160803518</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.6029760083703626</v>
+        <v>0.6029760083663857</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.6424995902339844</v>
+        <v>0.6424995902339979</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.6004358707507065</v>
+        <v>0.6004358707507056</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.6165497595412468</v>
+        <v>0.6165497595412449</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.6144418940380567</v>
+        <v>0.6144418940380733</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.6293650622288276</v>
+        <v>0.629365062228993</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.5994231006618806</v>
+        <v>0.5994231006618774</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.6281559992348948</v>
+        <v>0.628155999234895</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.5842227340993911</v>
+        <v>0.5842227340993894</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.6197165491015791</v>
+        <v>0.6197165491041843</v>
       </c>
     </row>
     <row r="11" spans="1:44">
@@ -4677,130 +4677,130 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6785036579688971</v>
+        <v>0.678503657966247</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6636550590139528</v>
+        <v>0.6636550590144422</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7215077376658693</v>
+        <v>0.7215077376658214</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6377133357394247</v>
+        <v>0.6377133357393316</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6532414483475446</v>
+        <v>0.6532414483476445</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5739775099366107</v>
+        <v>0.5739775099366116</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6739061995193202</v>
+        <v>0.673906199519529</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5996856376464601</v>
+        <v>0.5996856376463857</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6342977239956157</v>
+        <v>0.6342977239956521</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6334151595763401</v>
+        <v>0.6334151595763581</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5784050755515026</v>
+        <v>0.5784050755514466</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5731961662103988</v>
+        <v>0.5731961662103977</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5959974829841664</v>
+        <v>0.5959974829842063</v>
       </c>
       <c r="P11" t="n">
-        <v>0.7393259271901574</v>
+        <v>0.7393259271900052</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5768590437161751</v>
+        <v>0.5768590437161752</v>
       </c>
       <c r="R11" t="n">
-        <v>0.6602659707095317</v>
+        <v>0.6602659707092718</v>
       </c>
       <c r="S11" t="n">
-        <v>0.6530836240920826</v>
+        <v>0.6530836240917992</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6246515246374396</v>
+        <v>0.624651524637496</v>
       </c>
       <c r="U11" t="n">
-        <v>0.7433754261211326</v>
+        <v>0.7433754261211512</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5817074396060377</v>
+        <v>0.5817074396060369</v>
       </c>
       <c r="W11" t="n">
-        <v>0.669540653950605</v>
+        <v>0.669540653951079</v>
       </c>
       <c r="X11" t="n">
-        <v>0.6389052996542094</v>
+        <v>0.6389052996541984</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.7613829707114685</v>
+        <v>0.7613829707113372</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.6138356278341567</v>
+        <v>0.6138356278341464</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.7056792629126855</v>
+        <v>0.705679262912188</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.6248510941685489</v>
+        <v>0.6248510941685662</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.6032886505389412</v>
+        <v>0.6032886505389411</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.6187093684405183</v>
+        <v>0.6187093684405157</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.6741787806701147</v>
+        <v>0.6741787806700301</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.6385677826063368</v>
+        <v>0.6385677826060916</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.6953042139320377</v>
+        <v>0.6953042139320357</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.6175405679416148</v>
+        <v>0.617540567941615</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.6937080769323243</v>
+        <v>0.6937080769322648</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.6613643130394723</v>
+        <v>0.661364313039468</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.7007218831691649</v>
+        <v>0.700721883169187</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.7395360470885796</v>
+        <v>0.739536047088636</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.6526653820637259</v>
+        <v>0.6526653820637137</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.6483287384446449</v>
+        <v>0.6483287384446457</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.5961747055470124</v>
+        <v>0.596174705547013</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.6473615578755221</v>
+        <v>0.6473615578755449</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.5840792868940092</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.6846047364118691</v>
+        <v>0.6846047364106174</v>
       </c>
     </row>
   </sheetData>
